--- a/docs/data-cleaning-requests/modeling/brown.xlsx
+++ b/docs/data-cleaning-requests/modeling/brown.xlsx
@@ -368,92 +368,92 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.157
-(0.12)</t>
+          <t>0.048**
+(1.432)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.036
-(0.114)</t>
+          <t>0.01***
+(1.343)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.283***
-(0.055)</t>
+          <t>0.608
+(0.558)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.225***
-(0.055)</t>
+          <t>0.346**
+(0.531)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.174
-(0.107)</t>
+          <t>0.07**
+(1.254)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.038
-(0.105)</t>
+          <t>0.026***
+(1.212)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.289***
-(0.04)</t>
+          <t>0.651
+(0.381)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.283***
-(0.04)</t>
+          <t>0.623
+(0.377)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.155
-(0.115)</t>
+          <t>0.06**
+(1.388)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-0.282***
-(0.088)</t>
+          <t>0.001***
+(1.13)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.278***
-(0.05)</t>
+          <t>0.681
+(0.516)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.038
-(0.037)</t>
+          <t>0.058***
+(0.394)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.172*
-(0.099)</t>
+          <t>0.097**
+(1.187)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.207**
-(0.079)</t>
+          <t>0.003***
+(0.99)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.284***
-(0.027)</t>
+          <t>0.763
+(0.27)</t>
         </is>
       </c>
     </row>
@@ -465,50 +465,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.005
-(0.068)</t>
+          <t>1.728
+(0.74)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.189***
-(0.056)</t>
+          <t>0.15***
+(0.571)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.013
-(0.067)</t>
+          <t>1.516
+(0.732)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.239***
-(0.052)</t>
+          <t>0.091***
+(0.537)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.002
-(0.067)</t>
+          <t>1.813
+(0.731)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.196***
-(0.056)</t>
+          <t>0.147***
+(0.562)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-0.011
-(0.067)</t>
+          <t>1.544
+(0.723)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-0.243***
-(0.052)</t>
+          <t>0.092***
+(0.529)</t>
         </is>
       </c>
     </row>
@@ -520,50 +520,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0
-(0.001)</t>
+          <t>1.004
+(0.007)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.001*
-(0.001)</t>
+          <t>1.013*
+(0.007)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0
-(0.001)</t>
+          <t>1.001
+(0.007)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.001
-(0.001)</t>
+          <t>1.011
+(0.007)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0
-(0.001)</t>
+          <t>1.005
+(0.007)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.001*
-(0.001)</t>
+          <t>1.015**
+(0.007)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8.66e-05
-(0.001)</t>
+          <t>1.002
+(0.007)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.001*
-(0.001)</t>
+          <t>1.012*
+(0.007)</t>
         </is>
       </c>
     </row>
@@ -575,50 +575,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.212
-(0.18)</t>
+          <t>83.272*
+(2.277)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.454**
-(0.174)</t>
+          <t>557.878***
+(2.156)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.204
-(0.178)</t>
+          <t>63.272*
+(2.216)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.436**
-(0.174)</t>
+          <t>340.102**
+(2.106)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.213
-(0.179)</t>
+          <t>71.666*
+(2.266)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.656***
-(0.164)</t>
+          <t>3,657.058***
+(2.03)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.205
-(0.176)</t>
+          <t>51.453*
+(2.201)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.643***
-(0.164)</t>
+          <t>2,304.59***
+(1.983)</t>
         </is>
       </c>
     </row>
@@ -630,50 +630,50 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.373***
-(0.079)</t>
+          <t>0.008***
+(1)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.4***
-(0.076)</t>
+          <t>0.006***
+(0.977)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.38***
-(0.076)</t>
+          <t>0.007***
+(0.972)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-0.403***
-(0.073)</t>
+          <t>0.006***
+(0.952)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-0.376***
-(0.064)</t>
+          <t>0.013***
+(0.75)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-0.409***
-(0.058)</t>
+          <t>0.009***
+(0.709)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-0.382***
-(0.062)</t>
+          <t>0.012***
+(0.733)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-0.411***
-(0.057)</t>
+          <t>0.008***
+(0.699)</t>
         </is>
       </c>
     </row>
@@ -685,77 +685,77 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1,078</t>
+          <t>1,096</t>
         </is>
       </c>
     </row>
@@ -926,164 +926,164 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>r-squared</t>
+          <t>McFadden's r-squared</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.157</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.152</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.114</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.157</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.121</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.152</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.111</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.156</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.112</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.152</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.156</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.107</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.152</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Adjusted r-squared</t>
+          <t>Adj. McFadden's r-squared</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.044</t>
+          <t>0.144</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.115</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.142</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.107</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.044</t>
+          <t>0.147</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.044</t>
+          <t>0.145</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.106</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.044</t>
+          <t>0.146</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.104</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.044</t>
+          <t>0.144</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.148</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.101</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.147</t>
         </is>
       </c>
     </row>
@@ -1095,77 +1095,77 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>472.784</t>
+          <t>697.841</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>487.948</t>
+          <t>715.752</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>467.182</t>
+          <t>694.674</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>487.782</t>
+          <t>717.628</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>465.883</t>
+          <t>691.158</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>483.861</t>
+          <t>712.331</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>460.206</t>
+          <t>687.701</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>483.171</t>
+          <t>713.199</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>465.789</t>
+          <t>691.388</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>492.516</t>
+          <t>719.364</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>460.219</t>
+          <t>687.997</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>501.434</t>
+          <t>729.74</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>458.885</t>
+          <t>684.822</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>489.27</t>
+          <t>716.576</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>453.237</t>
+          <t>681.064</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:BL14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1191,188 +1191,380 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.117*
-(0.069)</t>
+          <t>0.382
+(0.598)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.418***
-(0.049)</t>
+          <t>0.111***
+(0.512)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.07
-(0.069)</t>
+          <t>0.509
+(0.591)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-0.41***
-(0.049)</t>
+          <t>0.135***
+(0.499)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.169**
-(0.07)</t>
+          <t>0.566
+(0.502)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.353***
-(0.044)</t>
+          <t>0.257***
+(0.423)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.114
-(0.07)</t>
+          <t>0.723
+(0.494)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.318***
-(0.044)</t>
+          <t>0.312***
+(0.41)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.162***
-(0.023)</t>
+          <t>0.11***
+(0.439)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.039*
-(0.022)</t>
+          <t>0.023***
+(0.369)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.167***
-(0.023)</t>
+          <t>0.132***
+(0.432)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.04*
-(0.022)</t>
+          <t>0.027***
+(0.361)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.224***
-(0.022)</t>
+          <t>0.197***
+(0.308)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.07***
-(0.014)</t>
+          <t>0.063***
+(0.243)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.243***
-(0.022)</t>
+          <t>0.226***
+(0.298)</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.087***
-(0.014)</t>
+          <t>0.071***
+(0.234)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>1.019
+(0.514)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.139***
+(0.415)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1.538
+(0.511)</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.179***
+(0.405)</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2.249*
+(0.424)</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.375***
+(0.332)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>3.322***
+(0.419)</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.467**
+(0.322)</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0.229***
+(0.39)</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.025***
+(0.29)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0.298***
+(0.392)</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0.032***
+(0.286)</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0.644*
+(0.261)</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0.082***
+(0.166)</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0.728
+(0.261)</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.096***
+(0.16)</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0.664
+(0.525)</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.133***
+(0.442)</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>1.494
+(0.489)</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>0.27***
+(0.398)</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0.656
+(0.485)</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
           <t>0.198***
-(0.036)</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-0.05**
-(0.025)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.267***
-(0.033)</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.011
-(0.023)</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.193***
-(0.037)</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-0.017
-(0.018)</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.295***
-(0.034)</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.07***
-(0.014)</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.174***
-(0.023)</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.032
-(0.02)</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.193***
-(0.023)</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0.051**
-(0.02)</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0.227***
-(0.022)</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0.063***
-(0.011)</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0.259***
-(0.022)</t>
+(0.407)</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>1.147
+(0.46)</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0.303***
+(0.383)</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0.188***
+(0.374)</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0.029***
+(0.284)</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>0.353***
+(0.331)</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>0.055***
+(0.227)</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>0.226***
+(0.291)</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>0.057***
+(0.225)</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>0.281***
+(0.27)</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>0.072***
+(0.203)</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>1.77
+(0.466)</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>0.206***
+(0.341)</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>5.108***
+(0.448)</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>0.529**
+(0.298)</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>2.433**
+(0.418)</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>0.302***
+(0.308)</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>4.776***
+(0.411)</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>0.548**
+(0.282)</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>0.382**
+(0.343)</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>0.038***
+(0.193)</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>0.819
+(0.325)</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>0.09***
+(0.126)</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>0.657*
+(0.255)</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>0.078***
+(0.138)</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>0.765
+(0.246)</t>
         </is>
       </c>
     </row>
@@ -1384,1482 +1576,3121 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.228***
-(0.043)</t>
+          <t>2.336**
+(0.408)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.339***
-(0.039)</t>
+          <t>1.315
+(0.382)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.24***
-(0.043)</t>
+          <t>3.717***
+(0.381)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.375***
-(0.039)</t>
+          <t>2.349**
+(0.352)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.262***
-(0.043)</t>
+          <t>1.544
+(0.326)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.324***
-(0.039)</t>
+          <t>0.54**
+(0.285)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.289***
-(0.044)</t>
+          <t>2.502***
+(0.286)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.359***
-(0.039)</t>
+          <t>0.954
+(0.242)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.065***
-(0.02)</t>
+          <t>2.852**
+(0.405)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-0.017
-(0.02)</t>
+          <t>1.46
+(0.378)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.096***
-(0.018)</t>
+          <t>4.65***
+(0.381)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.023
-(0.018)</t>
+          <t>2.577**
+(0.35)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.034*
-(0.02)</t>
+          <t>2.001**
+(0.288)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-0.018
-(0.02)</t>
+          <t>0.763
+(0.265)</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.077***
-(0.019)</t>
+          <t>2.985***
+(0.283)</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.025
-(0.018)</t>
+          <t>1.006
+(0.237)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2.607**
+(0.35)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1.781*
+(0.333)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>5.098***
+(0.325)</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>3.476***
+(0.304)</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1.425
+(0.281)</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0.644*
+(0.252)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2.783***
+(0.245)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1.24
+(0.21)</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>3.127***
+(0.346)</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>1.962**
+(0.328)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>6.172***
+(0.324)</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>3.775***
+(0.303)</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>2.218***
+(0.254)</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0.894
+(0.236)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>3.349***
+(0.242)</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>1.325
+(0.205)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuition (thousands of dollars)</t>
+          <t>Proportion of nonwhite instructors</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.007***
-(0.002)</t>
+          <t>222.186***
+(1.047)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.013***
-(0.001)</t>
+          <t>6.783**
+(0.755)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.006***
-(0.002)</t>
+          <t>314.756***
+(1)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.013***
-(0.001)</t>
+          <t>7.486***
+(0.693)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.009***
-(0.002)</t>
+          <t>232.086***
+(1.034)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.013***
-(0.001)</t>
+          <t>7.084**
+(0.73)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.009***
-(0.002)</t>
+          <t>325.841***
+(0.988)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.012***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-0.001
-(0.001)</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.004***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-0.002***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.002***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.001
-(0.001)</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0.004***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-0.001
-(0.001)</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.002***
-(0.001)</t>
+          <t>7.868***
+(0.673)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>349.578***
+(1.028)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>10.487***
+(0.727)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>523.997***
+(0.98)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>11.408***
+(0.667)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>439.271***
+(0.994)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>11.784***
+(0.674)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>565.817***
+(0.968)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>12.335***
+(0.647)</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>199.581***
+(1.027)</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>7.417**
+(0.744)</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>308.363***
+(0.948)</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>10.534***
+(0.668)</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>197.211***
+(1.017)</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>5.318**
+(0.709)</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>252.061***
+(0.933)</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>7.636***
+(0.655)</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>310.342***
+(1.002)</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>11.856***
+(0.717)</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>505.234***
+(0.921)</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>16.288***
+(0.644)</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>413.99***
+(0.967)</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>10.313***
+(0.658)</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>419.359***
+(0.904)</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>12.38***
+(0.631)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nonwhite proportion of enrolled students</t>
+          <t>Proportion of expenses spent on instruction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.291***
-(0.049)</t>
+          <t>0.969***
+(0.01)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.131***
-(0.042)</t>
+          <t>0.962***
+(0.009)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.346***
-(0.047)</t>
+          <t>0.967***
+(0.01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.175***
-(0.042)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.346***
-(0.047)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.08*
-(0.044)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.386***
-(0.046)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.122***
-(0.043)</t>
+          <t>0.96***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.973**
+(0.01)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.964***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.971***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.963***
+(0.009)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.326***
-(0.049)</t>
+          <t>0.957***
+(0.01)</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.087**
-(0.043)</t>
+          <t>0.954***
+(0.009)</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.387***
-(0.048)</t>
+          <t>0.953***
+(0.009)</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.138***
-(0.043)</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.313***
-(0.047)</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.081*
-(0.043)</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.355***
-(0.047)</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0.124***
-(0.043)</t>
+          <t>0.953***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.961***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.957***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.957***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.957***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0.966***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.961***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.96***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0.958***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>0.97***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0.966***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>0.964***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0.963***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>0.954***
+(0.01)</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>0.953***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>0.946***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>0.949***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>0.959***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>0.959***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>0.949***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>0.956***
+(0.008)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total enrollment at university (thousands)</t>
+          <t>Proportion of revenue coming from investments</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.003***
-(0.001)</t>
+          <t>1.017*
+(0.009)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.004***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.004***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.004***
-(0.001)</t>
+          <t>1.037***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.016*
+(0.009)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.037***
+(0.009)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.003***
-(0.001)</t>
+          <t>1.018*
+(0.01)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.004***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0.004***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.004***
-(0.001)</t>
+          <t>1.038***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.017*
+(0.01)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.038***
+(0.009)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.003***
-(0.001)</t>
+          <t>1.028***
+(0.008)</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.005***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.005***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0.005***
-(0.001)</t>
+          <t>1.047***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.027***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.046***
+(0.008)</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.004***
-(0.001)</t>
+          <t>1.028***
+(0.008)</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.003***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>0.004***
-(0.001)</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0.004***
-(0.001)</t>
+          <t>1.047***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>1.027***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>1.046***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>1.006
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>1.033***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>0.995
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>1.022***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>1.003
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>1.033***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>0.991
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>1.021***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>1.016**
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>1.038***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>1.002
+(0.007)</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>1.024***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>1.013*
+(0.007)</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>1.037***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>0.998
+(0.007)</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>1.022***
+(0.006)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proportion of Pell grant recipients</t>
+          <t>Total enrollment at university (thousands)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.482***
-(0.078)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-0.548***
-(0.078)</t>
+          <t>1.031***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.039***
+(0.009)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.233***
-(0.068)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-0.261***
-(0.069)</t>
+          <t>1.031***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.039***
+(0.009)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.695***
-(0.061)</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-0.724***
-(0.061)</t>
+          <t>1.033***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.04***
+(0.009)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0.476***
-(0.054)</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-0.481***
-(0.055)</t>
+          <t>1.028***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.023***
+(0.008)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.663***
-(0.072)</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-0.743***
-(0.07)</t>
+          <t>1.05***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1.047***
+(0.008)</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.41***
-(0.062)</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-0.46***
-(0.063)</t>
+          <t>1.049***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1.046***
+(0.008)</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>-0.625***
-(0.057)</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>-0.619***
-(0.058)</t>
+          <t>1.052***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>1.048***
+(0.008)</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-0.449***
-(0.052)</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>-0.412***
-(0.053)</t>
+          <t>1.037***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>1.032***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>1.039***
+(0.009)</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1.042***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>1.037***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>1.03***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>1.042***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>1.043***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>1.032***
+(0.006)</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>1.02***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>1.06***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>1.054***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>1.054***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>1.039***
+(0.007)</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>1.064***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>1.056***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>1.047***
+(0.008)</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>1.03***
+(0.007)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Proportion of Pell grant recipients</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,052</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,064</t>
+          <t>0***
+(1.104)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,052</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,064</t>
+          <t>0***
+(1.097)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,052</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1,064</t>
+          <t>0***
+(1.076)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1,052</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1,066</t>
+          <t>0***
+(1.072)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1,054</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1,066</t>
+          <t>0***
+(1.1)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1,054</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1,066</t>
+          <t>0***
+(1.094)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1,054</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1,066</t>
+          <t>0***
+(1.05)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1,054</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1,078</t>
+          <t>0***
+(1.072)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1,052</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1,064</t>
+          <t>0.001***
+(1.017)</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1,052</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1,064</t>
+          <t>0.001***
+(0.99)</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1,052</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>1,064</t>
+          <t>0.001***
+(0.991)</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1,052</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>1,066</t>
+          <t>0.001***
+(0.97)</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1,054</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>1,066</t>
+          <t>0.001***
+(1.02)</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1,054</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>1,066</t>
+          <t>0.001***
+(0.997)</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1,054</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>1,066</t>
+          <t>0***
+(1)</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1,054</t>
+          <t>0***
+(0.978)</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0.001***
+(1.053)</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>0.001***
+(1.024)</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.969)</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.915)</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0.001***
+(1.044)</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>0.001***
+(1.011)</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>0***
+(0.952)</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.89)</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>0.002***
+(0.986)</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>0.003***
+(0.92)</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.929)</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>0.003***
+(0.835)</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.986)</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>0.002***
+(0.92)</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>0.001***
+(0.911)</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>0.003***
+(0.811)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NAs</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>806</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>810</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>806</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>811</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>809</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>813</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>809</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>814</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>810</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>806</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>811</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>822</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>826</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>822</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>827</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1,066</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1,071</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1,066</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1,076</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1,069</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1,075</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1,069</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1,080</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1,066</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1,071</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1,066</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1,076</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1,084</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1,090</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1,084</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>1,096</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>1,066</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>1,071</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>1,066</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>1,076</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>1,069</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>1,075</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>1,069</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>1,080</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>1,066</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>1,071</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>1,066</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>1,076</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>1,084</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>1,090</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>1,084</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Incidents</t>
+          <t>NAs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>308</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>308</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>303</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>305</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>301</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>305</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>308</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>304</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>308</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>303</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>292</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>288</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>292</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>48</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>43</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>48</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>38</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>45</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>39</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>45</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>34</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>r-squared</t>
+          <t>Incidents</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.149</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.119</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.094</t>
+          <t>98</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.121</t>
+          <t>98</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>98</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.092</t>
+          <t>98</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.135</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>98</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.124</t>
+          <t>98</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>98</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.092</t>
+          <t>98</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>98</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>98</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>98</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>111</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.058</t>
+          <t>111</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>111</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>111</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.091</t>
+          <t>111</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0.055</t>
+          <t>111</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.055</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0.102</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>0.053</t>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>111</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Adjusted r-squared</t>
+          <t>McFadden's r-squared</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.145</t>
+          <t>0.409</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.116</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.131</t>
+          <t>0.397</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.092</t>
+          <t>0.305</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.118</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.109</t>
+          <t>0.304</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.089</t>
+          <t>0.388</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.078</t>
+          <t>0.279</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.398</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.308</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.121</t>
+          <t>0.383</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.281</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.388</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.268</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.066</t>
+          <t>0.374</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.253</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.124</t>
+          <t>0.292</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.217</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.107</t>
+          <t>0.258</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.175</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
+          <t>0.274</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0.241</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0.129</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0.267</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0.181</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0.226</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>0.137</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>0.242</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
           <t>0.088</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0.053</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0.053</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0.007</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0.124</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.029</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>0.007</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>0.088</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>0.027</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0.052</t>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0.403</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0.329</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>0.297</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>0.397</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>0.298</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>0.374</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0.279</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0.389</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0.307</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>0.271</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>0.267</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>0.354</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>0.253</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>0.282</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>0.213</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>0.221</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>0.151</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>0.272</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>0.166</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>0.217</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>0.252</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>0.176</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>0.179</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>0.108</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>0.115</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>0.176</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Adj. McFadden's r-squared</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.391</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.315</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.382</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.292</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.384</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.292</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.269</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.382</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.296</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.371</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.271</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.258</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.364</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.245</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.277</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.204</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.245</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.261</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.121</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0.254</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>0.171</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0.216</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>0.129</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>0.232</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0.108</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0.202</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0.083</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0.388</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0.316</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>0.367</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>0.287</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>0.385</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>0.288</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0.364</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0.271</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0.376</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0.297</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>0.349</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>0.263</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>0.259</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>0.346</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>0.248</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>0.203</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>0.211</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>0.144</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>0.262</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>0.159</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>0.122</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>0.242</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>0.168</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>0.171</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>0.103</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>0.223</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>0.171</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>BIC</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>363.095</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>390.263</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>374.792</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>414.072</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>391.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>393.107</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>419.98</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>424.06</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>373.754</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>486.524</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>380.519</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>504.418</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>418.899</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>482.892</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>441.024</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>502.667</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>384.075</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>456.244</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>398.28</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>495.681</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>420.907</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>453.358</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>456.032</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>498.394</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>377.168</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>480.243</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>400.68</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>498.987</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>414.751</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>476.755</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>450.475</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>511.517</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>567.178</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>514.423</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>579.932</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>512.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>580.499</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>515.141</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>593.79</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>513.802</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>577.382</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>518.457</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>591.904</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>515.027</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>602.548</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>519.072</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>607.58</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>598.248</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>650.505</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>618.465</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>676.383</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>605.74</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>680.588</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>625.156</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>706.191</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>611.17</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>671.775</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>636.329</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>699.938</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>623.733</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>716.582</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>642.401</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>730.805</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>509.357</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>561.003</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>520.958</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>579.663</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>507.418</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>578.482</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>519.268</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>587.125</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>514.269</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>571.719</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>530.351</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>593.303</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>514.431</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>596.876</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>528.405</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>600.863</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>599.125</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>646.622</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>640.551</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>688.444</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>600.351</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>676.672</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>636.508</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>700.272</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>615.83</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>669.211</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>666.84</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>715.146</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>626.238</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>709.812</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>662.043</t>
         </is>
       </c>
     </row>
@@ -2870,7 +4701,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,8 +4727,8 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.254*
-(0.144)</t>
+          <t>3.596
+(1.937)</t>
         </is>
       </c>
     </row>
@@ -2909,184 +4740,197 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.201***
-(0.044)</t>
+          <t>2.819**
+(0.425)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuition (thousands of dollars)</t>
+          <t>Proportion of nonwhite instructors</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.006***
-(0.002)</t>
+          <t>42.963***
+(1.283)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nonwhite proportion of enrolled students</t>
+          <t>Proportion of expenses spent on instruction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.277***
-(0.066)</t>
+          <t>0.97***
+(0.011)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total enrollment at university (thousands)</t>
+          <t>Proportion of revenue coming from investments</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.003***
-(0.001)</t>
+          <t>1.019**
+(0.01)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proportion of Pell grant recipients</t>
+          <t>Total enrollment at university (thousands)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.528***
-(0.084)</t>
+          <t>1.033***
+(0.01)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>White proportion in county of university</t>
+          <t>Proportion of Pell grant recipients</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.004
-(0.076)</t>
+          <t>0.001***
+(1.131)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Median household income (thousands)</t>
+          <t>White proportion in county of university</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-0.002***
-(0.001)</t>
+          <t>1.395
+(0.941)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Proportion of households spending more than 30% of income on rent</t>
+          <t>Median household income (thousands)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-0.225
-(0.179)</t>
+          <t>0.983*
+(0.01)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Proportion in county voting Republican in 2016 presidential election</t>
+          <t>Proportion of households spending more than 30% of income on rent</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-0.215**
-(0.079)</t>
+          <t>1.371
+(2.794)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Proportion in county voting Republican in 2016 presidential election</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1,052</t>
+          <t>0.015***
+(1.212)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NAs</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>806</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Incidents</t>
+          <t>NAs</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>308</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>r-squared</t>
+          <t>Incidents</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.162</t>
+          <t>98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Adjusted r-squared</t>
+          <t>McFadden's r-squared</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.155</t>
+          <t>0.432</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Adj. McFadden's r-squared</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.404</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>BIC</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>374.549</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>520.103</t>
         </is>
       </c>
     </row>

--- a/docs/data-cleaning-requests/modeling/brown.xlsx
+++ b/docs/data-cleaning-requests/modeling/brown.xlsx
@@ -359,7 +359,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>university</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>county</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
